--- a/bank statement generator/bank_statements/statement_9.xlsx
+++ b/bank statement generator/bank_statements/statement_9.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 10.09.2024</t>
+          <t>KONTOSTAND AM 30.03.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,110 +759,110 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>11.09.</t>
+          <t>01.04.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>12.09.</t>
+          <t>02.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 30912968</t>
+          <t>RECHNUNG VODAFONE GMBH 26432426</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>40,97-</t>
+          <t>41,37-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>14.09.</t>
+          <t>05.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>15.09.</t>
+          <t>06.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 2421014</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 50704860</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>84,04-</t>
+          <t>84,13-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>16.09.</t>
+          <t>06.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>17.09.</t>
+          <t>07.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-15373325</t>
+          <t>BEITRAG Allianz SE K-3256986</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>56,63-</t>
+          <t>57,52-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>20.09.</t>
+          <t>09.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>21.09.</t>
+          <t>10.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>PAYPAL JKTGJV</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>27,23-</t>
+          <t>71,98-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>22.09.</t>
+          <t>11.04.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>23.09.</t>
+          <t>12.04.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL DDRSLQ</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>63,38-</t>
+          <t>25,02-</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 24.09.2024</t>
+          <t>KONTOSTAND AM 16.04.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>272,25-</t>
+          <t>280,02-</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 30.09.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 22.04.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
